--- a/migforecasting/clustering/for paper/scdiff.xlsx
+++ b/migforecasting/clustering/for paper/scdiff.xlsx
@@ -405,16 +405,20 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
     <col min="16" max="17" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -542,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>-3.5846514318659262E-3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
         <v>4.6106873272247162E-2</v>
@@ -764,7 +768,7 @@
         <v>0.35856605038757849</v>
       </c>
       <c r="N7" s="3">
-        <v>-4.9872251494291753E-3</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3">
         <v>7.5307592917921884E-2</v>
